--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D8B97-3008-49EA-9571-7B670E958D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C0EE6-263C-4B01-B425-3D8B2EA57A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,25 @@
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
     <sheet name="backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Base System</t>
   </si>
@@ -76,9 +84,6 @@
     <t>Theme: Progress Tracker</t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) the keywords (name) used to associate career clusters, careers, subjects, and celebrities.</t>
-  </si>
-  <si>
     <t>As a Counselor I want to manage (CRUD) careeers (name, salary, description, keyword associations) displayed on the site.</t>
   </si>
   <si>
@@ -88,18 +93,12 @@
     <t>As a Counselor I want to manage (CRUD) the celebrity profiles (name, photo, article, keyword associations) displayed on the site.</t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) the subjects (name, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As a Counselor a counselor I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
   </si>
   <si>
     <t>As a User I want to see a list of career clusters (name, icon) after logging into the site so that I can drill down into associated careers for each cluster.</t>
   </si>
   <si>
-    <t>As a User after clicking on a career name I want to see base career data (name, salary, description) and links to keyword-associated content presneted on a page.</t>
-  </si>
-  <si>
     <t>As a User after clicking on a DITL link from an associated career page I would like to see that career's DITL article presented on a page.</t>
   </si>
   <si>
@@ -295,10 +294,25 @@
     <t>CF30</t>
   </si>
   <si>
-    <t>CF31</t>
-  </si>
-  <si>
-    <t>Total/ Load</t>
+    <t>US/TC</t>
+  </si>
+  <si>
+    <t>Front-End</t>
+  </si>
+  <si>
+    <t>Back-End</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total/ Loading: </t>
+  </si>
+  <si>
+    <t>As a Counselor I want to manage (CRUD) the keywords (name, type: subject, interest) used to associate career clusters, careers, and celebrities.</t>
+  </si>
+  <si>
+    <t>As a User after clicking on a career name I want to see base career data (name, salary, key subjects, description) and keyword-associated content links presneted on a page.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -422,9 +436,204 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -434,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -493,6 +702,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -508,46 +741,157 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +909,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,14 +1251,14 @@
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="35" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -931,12 +1271,12 @@
       <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -949,12 +1289,12 @@
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -967,12 +1307,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -987,9 +1327,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="H8" s="26"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1000,16 +1340,20 @@
       <c r="B9" s="17"/>
       <c r="C9" s="12"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
@@ -1017,17 +1361,13 @@
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="5"/>
     </row>
@@ -1037,7 +1377,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
@@ -1053,11 +1393,11 @@
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1069,11 +1409,11 @@
       <c r="C13" s="12"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1085,11 +1425,11 @@
       <c r="C14" s="12"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1099,17 +1439,21 @@
       <c r="A15" s="20"/>
       <c r="B15" s="17"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -1117,17 +1461,15 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="29" t="s">
-        <v>10</v>
-      </c>
+      <c r="F16" s="37"/>
       <c r="G16" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -1137,33 +1479,33 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="K17" s="16"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="13" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -1171,15 +1513,13 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="30" t="s">
-        <v>12</v>
-      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -1189,31 +1529,43 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="30"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -1221,18 +1573,16 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="F22" s="34"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="20"/>
       <c r="L22" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -1249,16 +1599,14 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="26"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -1275,14 +1623,14 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -1293,37 +1641,13 @@
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1332,515 +1656,659 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="146.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="28" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="83">
+        <f xml:space="preserve"> SUM($H2:$K2)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+      <c r="I2" s="29">
+        <v>2</v>
+      </c>
+      <c r="J2" s="29">
+        <v>2</v>
+      </c>
+      <c r="K2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="C23" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="C26" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="37" t="s">
+      <c r="C27" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="88"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="C28" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="C29" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="C30" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+    </row>
+    <row r="31" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="C31" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="32" t="s">
+      <c r="D31" s="89"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="40" t="s">
         <v>90</v>
+      </c>
+      <c r="D32" s="28">
+        <f>SUM(D$2:D$31)</f>
+        <v>6</v>
+      </c>
+      <c r="E32" s="28">
+        <f t="shared" ref="E32:G32" si="0">SUM(E$2:E$31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C0EE6-263C-4B01-B425-3D8B2EA57A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6416DC-A126-4DEF-8BEF-52CDB3556997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>As a Counselor I want to manage (CRUD) the celebrity profiles (name, photo, article, keyword associations) displayed on the site.</t>
   </si>
   <si>
-    <t>As a Counselor a counselor I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As a User I want to see a list of career clusters (name, icon) after logging into the site so that I can drill down into associated careers for each cluster.</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>As a User after clicking on a career name I want to see base career data (name, salary, key subjects, description) and keyword-associated content links presneted on a page.</t>
+  </si>
+  <si>
+    <t>As a Counselor I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1273,10 +1273,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="35"/>
       <c r="G5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1347,10 +1347,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="5"/>
@@ -1365,7 +1365,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1381,7 +1381,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1397,7 +1397,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1413,7 +1413,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1429,7 +1429,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1445,13 +1445,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -1463,13 +1463,13 @@
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="37"/>
       <c r="G17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1503,7 +1503,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -1535,7 +1535,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -1551,12 +1551,12 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="20"/>
       <c r="L21" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -1577,12 +1577,12 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="20"/>
       <c r="L22" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -1606,7 +1606,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -1630,7 +1630,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -1658,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,48 +1676,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D2" s="83">
         <f xml:space="preserve"> SUM($H2:$K2)</f>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="84"/>
       <c r="E3" s="70"/>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="77" t="s">
         <v>16</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>17</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>18</v>
@@ -1817,13 +1817,13 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="70"/>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="70"/>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="70"/>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="70"/>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="71"/>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="71"/>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="71"/>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="85"/>
       <c r="E14" s="71"/>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="71"/>
@@ -1988,13 +1988,13 @@
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="71"/>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="71"/>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="86"/>
       <c r="E18" s="72"/>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="86"/>
       <c r="E19" s="72"/>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="86"/>
       <c r="E20" s="72"/>
@@ -2083,13 +2083,13 @@
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="86"/>
       <c r="E21" s="72"/>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="86"/>
       <c r="E22" s="72"/>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="87"/>
       <c r="E23" s="73"/>
@@ -2140,13 +2140,13 @@
     </row>
     <row r="24" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="87"/>
       <c r="E24" s="73"/>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="25" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="87"/>
       <c r="E25" s="73"/>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="26" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="88"/>
       <c r="E26" s="74"/>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="27" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="88"/>
       <c r="E27" s="74"/>
@@ -2216,13 +2216,13 @@
     </row>
     <row r="28" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="88"/>
       <c r="E28" s="74"/>
@@ -2235,13 +2235,13 @@
     </row>
     <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="88"/>
       <c r="E29" s="74"/>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="30" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="88"/>
       <c r="E30" s="74"/>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="31" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="89"/>
       <c r="E31" s="75"/>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="28">
         <f>SUM(D$2:D$31)</f>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6416DC-A126-4DEF-8BEF-52CDB3556997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB89231F-F16E-4015-9F7D-E2C88912328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>Base System</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>As a Counselor I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
+  </si>
+  <si>
+    <t>API</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -619,7 +622,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -631,12 +634,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -726,6 +727,156 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -741,157 +892,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1251,7 +1252,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="85" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -1271,7 +1272,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="9" t="s">
         <v>90</v>
       </c>
@@ -1289,7 +1290,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1308,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="35"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1342,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="86" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="8"/>
@@ -1361,7 +1362,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
@@ -1377,7 +1378,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="36"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
@@ -1393,7 +1394,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="36"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
@@ -1409,7 +1410,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="36"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10" t="s">
@@ -1425,7 +1426,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10" t="s">
@@ -1441,7 +1442,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="87" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -1461,7 +1462,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1479,7 +1480,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="13" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +1496,7 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="88" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="18"/>
@@ -1513,7 +1514,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -1529,7 +1530,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -1545,7 +1546,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="23"/>
@@ -1573,7 +1574,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24" t="s">
@@ -1599,7 +1600,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -1623,7 +1624,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="34"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -1656,17 +1657,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="28" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="34" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="28" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="28" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="28" customWidth="1"/>
@@ -1674,14 +1675,14 @@
     <col min="8" max="11" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="28" t="s">
@@ -1708,590 +1709,684 @@
       <c r="K1" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="L1" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="83">
-        <f xml:space="preserve"> SUM($H2:$K2)</f>
-        <v>6</v>
-      </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="29">
-        <v>1</v>
-      </c>
-      <c r="I2" s="29">
-        <v>2</v>
-      </c>
-      <c r="J2" s="29">
-        <v>2</v>
-      </c>
-      <c r="K2" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="D2" s="89">
+        <f xml:space="preserve"> SUM($H2:$T2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="56"/>
+      <c r="D3" s="78">
+        <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="56"/>
+      <c r="D6" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="56"/>
+      <c r="D8" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="56"/>
+      <c r="D9" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="D10" s="78">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="65">
+        <f>D10</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29">
+        <v>2</v>
+      </c>
       <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="58"/>
+      <c r="D11" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="58"/>
+      <c r="D13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="58"/>
+      <c r="D14" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="58"/>
+      <c r="D15" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="58"/>
+      <c r="D16" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="58"/>
+      <c r="D17" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="60"/>
+      <c r="D18" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="60"/>
+      <c r="D19" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="60"/>
+      <c r="D20" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="60"/>
+      <c r="D21" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="60"/>
+      <c r="D22" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="62"/>
+      <c r="D23" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="62"/>
+      <c r="D24" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="62"/>
+      <c r="D25" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="64"/>
+      <c r="D26" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="64"/>
+      <c r="D27" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="64"/>
+      <c r="D28" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="64"/>
+      <c r="D29" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="64"/>
+      <c r="D30" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
+      <c r="D31" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="35" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="28">
@@ -2299,15 +2394,15 @@
         <v>6</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" ref="E32:G32" si="0">SUM(E$2:E$31)</f>
-        <v>0</v>
+        <f t="shared" ref="E32:G32" si="1">SUM(E$2:E$31)</f>
+        <v>6</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB89231F-F16E-4015-9F7D-E2C88912328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E1691-55CD-450C-B901-C2E812B7A119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EC7DB265-F8E0-4255-88FD-7E3B798F812B}</author>
+  </authors>
+  <commentList>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{EC7DB265-F8E0-4255-88FD-7E3B798F812B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    userRequirements &gt; 1. Base System: A content management system allowing users to … read… celebrity names, articles, photos.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
@@ -322,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +384,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -877,6 +901,9 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -891,9 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,6 +934,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Caplin,Robert O,II" id="{AEABF0B4-0D92-49F5-9F95-0526D087F34F}" userId="Caplin,Robert O,II" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,12 +1203,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H7" dT="2020-02-29T17:07:01.72" personId="{AEABF0B4-0D92-49F5-9F95-0526D087F34F}" id="{EC7DB265-F8E0-4255-88FD-7E3B798F812B}">
+    <text>userRequirements &gt; 1. Base System: A content management system allowing users to … read… celebrity names, articles, photos.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1290,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="86" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -1272,7 +1310,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="85"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="9" t="s">
         <v>90</v>
       </c>
@@ -1290,7 +1328,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="85"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1346,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1342,7 +1380,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="87" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="8"/>
@@ -1362,7 +1400,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="86"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
@@ -1378,7 +1416,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="86"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
@@ -1394,7 +1432,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="86"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
@@ -1410,7 +1448,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10" t="s">
@@ -1426,7 +1464,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="86"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10" t="s">
@@ -1442,7 +1480,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="88" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -1462,7 +1500,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1518,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="13" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1534,7 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="89" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="18"/>
@@ -1514,7 +1552,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="88"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -1530,7 +1568,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="88"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -1546,7 +1584,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="85" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="23"/>
@@ -1574,7 +1612,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="84"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24" t="s">
@@ -1600,7 +1638,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="84"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -1624,7 +1662,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -1652,6 +1690,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1659,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1762,7 @@
       <c r="C2" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="89">
+      <c r="D2" s="84">
         <f xml:space="preserve"> SUM($H2:$T2)</f>
         <v>0</v>
       </c>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E1691-55CD-450C-B901-C2E812B7A119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F685476-4F6D-49E2-A8B3-266D280975B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Theme: Progress Tracker</t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) careeers (name, salary, description, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As a Counselor I want to manage (CRUD) Day-In-the-Life articles that are associated with careers.</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>As a Student I want to answer a chat prompt after logging into the site and receive a career cluster recommendation based on parsed keywords in my response.</t>
   </si>
   <si>
-    <t>As a Student I want to my response to be logged if it does not contain any known keywords so that my Counselor can improve the system.</t>
-  </si>
-  <si>
     <t>As a Student I want recommended career clusters to be placed in a queue so that I can remember to visit them.</t>
   </si>
   <si>
@@ -327,20 +321,26 @@
     <t>As a Counselor I want to manage (CRUD) the keywords (name, type: subject, interest) used to associate career clusters, careers, and celebrities.</t>
   </si>
   <si>
-    <t>As a User after clicking on a career name I want to see base career data (name, salary, key subjects, description) and keyword-associated content links presneted on a page.</t>
-  </si>
-  <si>
     <t>As a Counselor I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
   </si>
   <si>
     <t>API</t>
+  </si>
+  <si>
+    <t>As a Counselor I want to manage (CRUD) careers (name, salary, description, keyword associations) displayed on the site.</t>
+  </si>
+  <si>
+    <t>As a User after clicking on a career name I want to see base career data (name, salary, key subjects, description) and keyword-associated content links presented on a page.</t>
+  </si>
+  <si>
+    <t>As a Student I want my response to be logged if it does not contain any known keywords so that my Counselor can improve the system.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,12 +384,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1215,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1294,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1312,10 +1306,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="86"/>
       <c r="G5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1330,10 +1324,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="86"/>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1348,10 +1342,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="86"/>
       <c r="G7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1366,7 +1360,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="7"/>
@@ -1386,10 +1380,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="5"/>
@@ -1404,7 +1398,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1420,7 +1414,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1436,7 +1430,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1452,7 +1446,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1468,7 +1462,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1484,13 +1478,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -1502,13 +1496,13 @@
       <c r="E16" s="12"/>
       <c r="F16" s="88"/>
       <c r="G16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="13" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -1520,7 +1514,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="88"/>
       <c r="G17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1542,7 +1536,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -1558,7 +1552,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -1574,7 +1568,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -1590,12 +1584,12 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="20"/>
       <c r="L21" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -1616,12 +1610,12 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="20"/>
       <c r="L22" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -1645,7 +1639,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -1669,7 +1663,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -1698,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,51 +1710,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="L1" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="84">
         <f xml:space="preserve"> SUM($H2:$T2)</f>
@@ -1776,13 +1770,13 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="78">
         <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
@@ -1798,13 +1792,13 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D4" s="78">
         <f t="shared" si="0"/>
@@ -1820,13 +1814,13 @@
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="78">
         <f t="shared" si="0"/>
@@ -1842,13 +1836,13 @@
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="78">
         <f t="shared" si="0"/>
@@ -1864,13 +1858,13 @@
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="78">
         <f t="shared" si="0"/>
@@ -1886,13 +1880,13 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="78">
         <f t="shared" si="0"/>
@@ -1908,13 +1902,13 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="78">
         <f t="shared" si="0"/>
@@ -1930,13 +1924,13 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="78">
         <f t="shared" si="0"/>
@@ -1964,13 +1958,13 @@
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="79">
         <f t="shared" si="0"/>
@@ -1986,13 +1980,13 @@
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="79">
         <f t="shared" si="0"/>
@@ -2008,13 +2002,13 @@
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="79">
         <f t="shared" si="0"/>
@@ -2030,13 +2024,13 @@
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="79">
         <f t="shared" si="0"/>
@@ -2052,13 +2046,13 @@
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="79">
         <f t="shared" si="0"/>
@@ -2074,13 +2068,13 @@
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="79">
         <f t="shared" si="0"/>
@@ -2096,13 +2090,13 @@
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="79">
         <f t="shared" si="0"/>
@@ -2118,13 +2112,13 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="80">
         <f t="shared" si="0"/>
@@ -2140,13 +2134,13 @@
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="80">
         <f t="shared" si="0"/>
@@ -2162,13 +2156,13 @@
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="80">
         <f t="shared" si="0"/>
@@ -2184,13 +2178,13 @@
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="80">
         <f t="shared" si="0"/>
@@ -2206,13 +2200,13 @@
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D22" s="80">
         <f t="shared" si="0"/>
@@ -2228,13 +2222,13 @@
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="81">
         <f t="shared" si="0"/>
@@ -2250,13 +2244,13 @@
     </row>
     <row r="24" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="81">
         <f t="shared" si="0"/>
@@ -2272,13 +2266,13 @@
     </row>
     <row r="25" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="81">
         <f t="shared" si="0"/>
@@ -2294,13 +2288,13 @@
     </row>
     <row r="26" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
@@ -2316,13 +2310,13 @@
     </row>
     <row r="27" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
@@ -2338,13 +2332,13 @@
     </row>
     <row r="28" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="82">
         <f t="shared" si="0"/>
@@ -2360,13 +2354,13 @@
     </row>
     <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="82">
         <f t="shared" si="0"/>
@@ -2382,13 +2376,13 @@
     </row>
     <row r="30" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="82">
         <f t="shared" si="0"/>
@@ -2404,13 +2398,13 @@
     </row>
     <row r="31" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="83">
         <f t="shared" si="0"/>
@@ -2426,7 +2420,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="28">
         <f>SUM(D$2:D$31)</f>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F685476-4F6D-49E2-A8B3-266D280975B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490270A-FEB2-4B4F-BD46-9B702281C105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>Base System</t>
   </si>
@@ -117,24 +117,9 @@
     <t>As a User after clicking on a celebrity link from an associated career page I would like to see that career's celebrity profile (name, photo, article) presented on a page.</t>
   </si>
   <si>
-    <t>As an Admin I would like to manage (CRUD) all user types (student, teacher, counselor, admin) from a listing of all users in the system.</t>
-  </si>
-  <si>
     <t>As an Admin I should be able to reset the password of any listed user in the system.</t>
   </si>
   <si>
-    <t>As a Teacher I want to manage (CRUD) students in my associated group (class).</t>
-  </si>
-  <si>
-    <t>As a Teacher I want to (CRUD) sub-groups (name, associated users) within my group (class).</t>
-  </si>
-  <si>
-    <t>As an Admin I want to manage (CRUD) groups (name, associated users) in the system.</t>
-  </si>
-  <si>
-    <t>As a Teacher I should be able to reset the password of students within my group (class).</t>
-  </si>
-  <si>
     <t>As a User I should be able to access the site with valid credentials (username/ password or e-mail/ password) from a login page.</t>
   </si>
   <si>
@@ -159,12 +144,6 @@
     <t>As a Student I should be able to bookmark careers I am interested in.</t>
   </si>
   <si>
-    <t>As a Teacher I can view point totals of students and student groups within my class.</t>
-  </si>
-  <si>
-    <t>As a Teacher I can reset point totals of students and groups within my class.</t>
-  </si>
-  <si>
     <t>As a Student I earn 1 point each time I visit a new career and all associated content.</t>
   </si>
   <si>
@@ -252,12 +231,6 @@
     <t>CF13</t>
   </si>
   <si>
-    <t>CF14</t>
-  </si>
-  <si>
-    <t>CF15</t>
-  </si>
-  <si>
     <t>CF16</t>
   </si>
   <si>
@@ -334,6 +307,21 @@
   </si>
   <si>
     <t>As a Student I want my response to be logged if it does not contain any known keywords so that my Counselor can improve the system.</t>
+  </si>
+  <si>
+    <t>As an Admin I would like to manage (CRUD) all user types (student, counselor, admin) from a listing of all users in the system.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) classes (name, associated users) in the system.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to be able to filter listed users by class.</t>
+  </si>
+  <si>
+    <t>As an Admin I can view point totals of students and classes containing students.</t>
+  </si>
+  <si>
+    <t>As an Admin I can reset point totals of individual students and all students within a particular class.</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>18</v>
@@ -1306,10 +1294,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="86"/>
       <c r="G5" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1324,7 +1312,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="86"/>
       <c r="G6" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>19</v>
@@ -1380,10 +1368,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="5"/>
@@ -1398,7 +1386,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1414,7 +1402,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1430,7 +1418,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1440,33 +1428,39 @@
       <c r="A13" s="20"/>
       <c r="B13" s="17"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="17"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -1474,53 +1468,49 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="88" t="s">
-        <v>10</v>
-      </c>
+      <c r="F15" s="88"/>
       <c r="G15" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="K15" s="16"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="12"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -1528,49 +1518,69 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="89" t="s">
-        <v>12</v>
-      </c>
+      <c r="F18" s="89"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -1578,18 +1588,14 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="85" t="s">
-        <v>13</v>
-      </c>
+      <c r="F21" s="85"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="I21" s="23"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -1609,13 +1615,11 @@
       <c r="F22" s="85"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="I22" s="23"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -1626,61 +1630,13 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F19:F22"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1690,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,51 +1666,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D2" s="84">
         <f xml:space="preserve"> SUM($H2:$T2)</f>
@@ -1770,16 +1726,16 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D3" s="78">
-        <f t="shared" ref="D3:D31" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
+        <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="65"/>
@@ -1792,13 +1748,13 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D4" s="78">
         <f t="shared" si="0"/>
@@ -1814,10 +1770,10 @@
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="72" t="s">
         <v>16</v>
@@ -1836,10 +1792,10 @@
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" s="72" t="s">
         <v>17</v>
@@ -1858,10 +1814,10 @@
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" s="72" t="s">
         <v>18</v>
@@ -1880,13 +1836,13 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D8" s="78">
         <f t="shared" si="0"/>
@@ -1902,10 +1858,10 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="72" t="s">
         <v>19</v>
@@ -1924,10 +1880,10 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>20</v>
@@ -1958,13 +1914,13 @@
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D11" s="79">
         <f t="shared" si="0"/>
@@ -1980,13 +1936,13 @@
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="79">
         <f t="shared" si="0"/>
@@ -2002,13 +1958,13 @@
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D13" s="79">
         <f t="shared" si="0"/>
@@ -2024,13 +1980,13 @@
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D14" s="79">
         <f t="shared" si="0"/>
@@ -2046,13 +2002,13 @@
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="79">
         <f t="shared" si="0"/>
@@ -2066,59 +2022,59 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="80">
         <f t="shared" si="0"/>
@@ -2134,13 +2090,13 @@
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="80">
         <f t="shared" si="0"/>
@@ -2156,13 +2112,13 @@
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D20" s="80">
         <f t="shared" si="0"/>
@@ -2176,59 +2132,59 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="81">
         <f t="shared" si="0"/>
@@ -2242,59 +2198,59 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
@@ -2310,13 +2266,13 @@
     </row>
     <row r="27" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
@@ -2332,13 +2288,13 @@
     </row>
     <row r="28" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" s="82">
         <f t="shared" si="0"/>
@@ -2352,89 +2308,45 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="59"/>
+    <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="31" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="28">
-        <f>SUM(D$2:D$31)</f>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="28">
+        <f>SUM(D$2:D$29)</f>
         <v>6</v>
       </c>
-      <c r="E32" s="28">
-        <f t="shared" ref="E32:G32" si="1">SUM(E$2:E$31)</f>
+      <c r="E30" s="28">
+        <f t="shared" ref="E30:G30" si="1">SUM(E$2:E$29)</f>
         <v>6</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F30" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G30" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490270A-FEB2-4B4F-BD46-9B702281C105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37361AAC-70AD-4A6B-B7E2-F9F8B42C34E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Base System</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Theme: Progress Tracker</t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) Day-In-the-Life articles that are associated with careers.</t>
-  </si>
-  <si>
-    <t>As a Counselor I want to manage (CRUD) the celebrity profiles (name, photo, article, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As a User I want to see a list of career clusters (name, icon) after logging into the site so that I can drill down into associated careers for each cluster.</t>
   </si>
   <si>
@@ -123,15 +117,6 @@
     <t>As a User I should be able to access the site with valid credentials (username/ password or e-mail/ password) from a login page.</t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) prompts that will be presented to students when they log into the site.</t>
-  </si>
-  <si>
-    <t>As a Counselor I want to manage (CRUD) an icon/ profile picture that will be used by the site's chat counselor.</t>
-  </si>
-  <si>
-    <t>As a Counselor I want to be able to view and delete (RD) anonymized student response logs that did not contain any keywords present in the system.</t>
-  </si>
-  <si>
     <t>As a Student I want to answer a chat prompt after logging into the site and receive a career cluster recommendation based on parsed keywords in my response.</t>
   </si>
   <si>
@@ -270,12 +255,6 @@
     <t>CF28</t>
   </si>
   <si>
-    <t>CF29</t>
-  </si>
-  <si>
-    <t>CF30</t>
-  </si>
-  <si>
     <t>US/TC</t>
   </si>
   <si>
@@ -291,27 +270,12 @@
     <t xml:space="preserve">Total/ Loading: </t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) the keywords (name, type: subject, interest) used to associate career clusters, careers, and celebrities.</t>
-  </si>
-  <si>
-    <t>As a Counselor I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
-    <t>As a Counselor I want to manage (CRUD) careers (name, salary, description, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As a User after clicking on a career name I want to see base career data (name, salary, key subjects, description) and keyword-associated content links presented on a page.</t>
   </si>
   <si>
-    <t>As a Student I want my response to be logged if it does not contain any known keywords so that my Counselor can improve the system.</t>
-  </si>
-  <si>
-    <t>As an Admin I would like to manage (CRUD) all user types (student, counselor, admin) from a listing of all users in the system.</t>
-  </si>
-  <si>
     <t>As an Admin I want to manage (CRUD) classes (name, associated users) in the system.</t>
   </si>
   <si>
@@ -322,6 +286,51 @@
   </si>
   <si>
     <t>As an Admin I can reset point totals of individual students and all students within a particular class.</t>
+  </si>
+  <si>
+    <t>As a Admin I want to manage (CRUD) prompts that will be presented to students when they log into the site.</t>
+  </si>
+  <si>
+    <t>As a Student I want my response to be logged if it does not contain any known keywords so that my Admin can improve the system.</t>
+  </si>
+  <si>
+    <t>As a Admin I want to be able to view and delete (RD) anonymized student response logs that did not contain any keywords present in the system.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) the keywords (name, type: subject, interest) used to associate career clusters, careers, and celebrities.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) careers (name, salary, description, keyword associations) displayed on the site.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) Day-In-the-Life articles that are associated with careers.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) the celebrity profiles (name, photo, article, keyword associations) displayed on the site.</t>
+  </si>
+  <si>
+    <t>As an Admin I would like to manage (CRUD) all user types (student, admin) from a listing of all users in the system.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) prompts that will be presented to students when they log into the site.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to be able to view and delete (RD) anonymized student response logs that did not contain any keywords present in the system.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) an icon/ profile picture that will be used by the site's chat counselor.</t>
+  </si>
+  <si>
+    <t>As a Admin I want to manage (CRUD) an icon/ profile picture that will be used by the site's chat counselor.</t>
+  </si>
+  <si>
+    <t>CF14</t>
+  </si>
+  <si>
+    <t>CF15</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1294,10 +1303,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="86"/>
       <c r="G5" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1312,10 +1321,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="86"/>
       <c r="G6" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1330,10 +1339,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="86"/>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1348,7 +1357,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="9" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="7"/>
@@ -1368,10 +1377,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="5"/>
@@ -1386,7 +1395,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1402,7 +1411,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1418,7 +1427,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1434,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L13" s="12"/>
     </row>
@@ -1452,13 +1461,13 @@
       <c r="E14" s="12"/>
       <c r="F14" s="88"/>
       <c r="G14" s="13" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L14" s="12"/>
     </row>
@@ -1470,7 +1479,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="88"/>
       <c r="G15" s="13" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1492,7 +1501,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -1508,7 +1517,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L17" s="17"/>
     </row>
@@ -1524,7 +1533,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -1540,12 +1549,12 @@
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="20"/>
       <c r="L19" s="24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
@@ -1566,12 +1575,12 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="20"/>
       <c r="L20" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -1595,7 +1604,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -1619,7 +1628,7 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -1648,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,51 +1675,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="84">
         <f xml:space="preserve"> SUM($H2:$T2)</f>
@@ -1726,13 +1735,13 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="78">
         <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
@@ -1748,13 +1757,13 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="78">
         <f t="shared" si="0"/>
@@ -1770,13 +1779,13 @@
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D5" s="78">
         <f t="shared" si="0"/>
@@ -1792,13 +1801,13 @@
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D6" s="78">
         <f t="shared" si="0"/>
@@ -1814,13 +1823,13 @@
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="78">
         <f t="shared" si="0"/>
@@ -1836,13 +1845,13 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D8" s="78">
         <f t="shared" si="0"/>
@@ -1858,13 +1867,13 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="78">
         <f t="shared" si="0"/>
@@ -1880,13 +1889,13 @@
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="78">
         <f t="shared" si="0"/>
@@ -1914,13 +1923,13 @@
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="79">
         <f t="shared" si="0"/>
@@ -1936,13 +1945,13 @@
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="79">
         <f t="shared" si="0"/>
@@ -1958,13 +1967,13 @@
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D13" s="79">
         <f t="shared" si="0"/>
@@ -1980,13 +1989,13 @@
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D14" s="79">
         <f t="shared" si="0"/>
@@ -2002,13 +2011,13 @@
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="79">
         <f t="shared" si="0"/>
@@ -2024,13 +2033,13 @@
     </row>
     <row r="16" spans="1:12" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D16" s="80">
         <f t="shared" si="0"/>
@@ -2046,13 +2055,13 @@
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D17" s="80">
         <f t="shared" si="0"/>
@@ -2068,13 +2077,13 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D18" s="80">
         <f t="shared" si="0"/>
@@ -2090,13 +2099,13 @@
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="80">
         <f t="shared" si="0"/>
@@ -2112,13 +2121,13 @@
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D20" s="80">
         <f t="shared" si="0"/>
@@ -2134,13 +2143,13 @@
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" s="81">
         <f t="shared" si="0"/>
@@ -2156,13 +2165,13 @@
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22" s="81">
         <f t="shared" si="0"/>
@@ -2178,13 +2187,13 @@
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D23" s="81">
         <f t="shared" si="0"/>
@@ -2200,13 +2209,13 @@
     </row>
     <row r="24" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
@@ -2222,13 +2231,13 @@
     </row>
     <row r="25" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
@@ -2244,13 +2253,13 @@
     </row>
     <row r="26" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
@@ -2266,13 +2275,13 @@
     </row>
     <row r="27" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
@@ -2288,13 +2297,13 @@
     </row>
     <row r="28" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="82">
         <f t="shared" si="0"/>
@@ -2310,13 +2319,13 @@
     </row>
     <row r="29" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
@@ -2332,7 +2341,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D30" s="28">
         <f>SUM(D$2:D$29)</f>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37361AAC-70AD-4A6B-B7E2-F9F8B42C34E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAA5166-7A59-4A31-B3A5-E9822B9C2301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>API</t>
   </si>
   <si>
-    <t>As a User after clicking on a career name I want to see base career data (name, salary, key subjects, description) and keyword-associated content links presented on a page.</t>
-  </si>
-  <si>
     <t>As an Admin I want to manage (CRUD) classes (name, associated users) in the system.</t>
   </si>
   <si>
@@ -300,18 +297,12 @@
     <t>As an Admin I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
   </si>
   <si>
-    <t>As an Admin I want to manage (CRUD) the keywords (name, type: subject, interest) used to associate career clusters, careers, and celebrities.</t>
-  </si>
-  <si>
     <t>As an Admin I want to manage (CRUD) careers (name, salary, description, keyword associations) displayed on the site.</t>
   </si>
   <si>
     <t>As an Admin I want to manage (CRUD) Day-In-the-Life articles that are associated with careers.</t>
   </si>
   <si>
-    <t>As an Admin I want to manage (CRUD) the celebrity profiles (name, photo, article, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As an Admin I would like to manage (CRUD) all user types (student, admin) from a listing of all users in the system.</t>
   </si>
   <si>
@@ -331,6 +322,15 @@
   </si>
   <si>
     <t>CF15</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) the keywords (name, type: subject, interest) associated with career clusters and careers.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) the celebrity profiles (name, photo, article) associated with careers.</t>
+  </si>
+  <si>
+    <t>As a User after clicking on a career name I want to see base career data (name, salary, subject keywords, description) and associated DITL/ Celebrity links presented on a page.</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>16</v>
@@ -1303,10 +1303,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="86"/>
       <c r="G5" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1321,7 +1321,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="86"/>
       <c r="G6" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>17</v>
@@ -1339,7 +1339,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="86"/>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>18</v>
@@ -1357,7 +1357,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="7"/>
@@ -1377,7 +1377,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>20</v>
@@ -1411,7 +1411,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1427,7 +1427,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1443,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1461,13 +1461,13 @@
       <c r="E14" s="12"/>
       <c r="F14" s="88"/>
       <c r="G14" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" s="12"/>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="88"/>
       <c r="G15" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1549,7 +1549,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="20"/>
@@ -1575,7 +1575,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="20"/>
@@ -1658,7 +1658,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="84">
         <f xml:space="preserve"> SUM($H2:$T2)</f>
@@ -1741,7 +1741,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D3" s="78">
         <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
@@ -1763,7 +1763,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="78">
         <f t="shared" si="0"/>
@@ -1785,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="78">
         <f t="shared" si="0"/>
@@ -1807,7 +1807,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D6" s="78">
         <f t="shared" si="0"/>
@@ -1851,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D8" s="78">
         <f t="shared" si="0"/>
@@ -1929,7 +1929,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="79">
         <f t="shared" si="0"/>
@@ -1973,7 +1973,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="79">
         <f t="shared" si="0"/>
@@ -1995,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="79">
         <f t="shared" si="0"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="16" spans="1:12" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="80">
         <f t="shared" si="0"/>
@@ -2061,7 +2061,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="80">
         <f t="shared" si="0"/>
@@ -2083,7 +2083,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="80">
         <f t="shared" si="0"/>
@@ -2127,7 +2127,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="80">
         <f t="shared" si="0"/>
@@ -2215,7 +2215,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
@@ -2237,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAA5166-7A59-4A31-B3A5-E9822B9C2301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAAE8E-38DE-41A4-AD6E-6B864E50BCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={EC7DB265-F8E0-4255-88FD-7E3B798F812B}</author>
-  </authors>
-  <commentList>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{EC7DB265-F8E0-4255-88FD-7E3B798F812B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    userRequirements &gt; 1. Base System: A content management system allowing users to … read… celebrity names, articles, photos.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
@@ -297,9 +279,6 @@
     <t>As an Admin I want to manage (CRUD) the carrer clusters ( name, icon, keyword associations) displayed on the site.</t>
   </si>
   <si>
-    <t>As an Admin I want to manage (CRUD) careers (name, salary, description, keyword associations) displayed on the site.</t>
-  </si>
-  <si>
     <t>As an Admin I want to manage (CRUD) Day-In-the-Life articles that are associated with careers.</t>
   </si>
   <si>
@@ -324,13 +303,16 @@
     <t>CF15</t>
   </si>
   <si>
-    <t>As an Admin I want to manage (CRUD) the keywords (name, type: subject, interest) associated with career clusters and careers.</t>
-  </si>
-  <si>
     <t>As an Admin I want to manage (CRUD) the celebrity profiles (name, photo, article) associated with careers.</t>
   </si>
   <si>
     <t>As a User after clicking on a career name I want to see base career data (name, salary, subject keywords, description) and associated DITL/ Celebrity links presented on a page.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) the keywords (name, type: subject, interest) associated with career clusters.</t>
+  </si>
+  <si>
+    <t>As an Admin I want to manage (CRUD) careers (name, salary, description) displayed on the site.</t>
   </si>
 </sst>
 </file>
@@ -928,9 +910,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Caplin,Robert O,II" id="{AEABF0B4-0D92-49F5-9F95-0526D087F34F}" userId="Caplin,Robert O,II" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,20 +1174,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H7" dT="2020-02-29T17:07:01.72" personId="{AEABF0B4-0D92-49F5-9F95-0526D087F34F}" id="{EC7DB265-F8E0-4255-88FD-7E3B798F812B}">
-    <text>userRequirements &gt; 1. Base System: A content management system allowing users to … read… celebrity names, articles, photos.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,10 +1275,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="86"/>
       <c r="G5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1321,7 +1293,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="86"/>
       <c r="G6" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>17</v>
@@ -1339,7 +1311,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="86"/>
       <c r="G7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>18</v>
@@ -1357,7 +1329,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="7"/>
@@ -1377,7 +1349,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>20</v>
@@ -1443,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1461,7 +1433,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="88"/>
       <c r="G14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1479,7 +1451,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="88"/>
       <c r="G15" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1649,7 +1621,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1657,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="78">
         <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
@@ -1763,7 +1734,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D4" s="78">
         <f t="shared" si="0"/>
@@ -1785,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="78">
         <f t="shared" si="0"/>
@@ -1807,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="78">
         <f t="shared" si="0"/>
@@ -1851,7 +1822,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="78">
         <f t="shared" si="0"/>
@@ -1929,7 +1900,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="79">
         <f t="shared" si="0"/>
@@ -2011,7 +1982,7 @@
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -2033,7 +2004,7 @@
     </row>
     <row r="16" spans="1:12" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>38</v>
@@ -2061,7 +2032,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="80">
         <f t="shared" si="0"/>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAAE8E-38DE-41A4-AD6E-6B864E50BCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90DBBA-A02D-40BF-B097-8B09C642C1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -907,10 +907,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1628,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,15 +1690,26 @@
       </c>
       <c r="D2" s="84">
         <f xml:space="preserve"> SUM($H2:$T2)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="64"/>
-      <c r="F2" s="48"/>
+      <c r="F2" s="48">
+        <f>$D2</f>
+        <v>8</v>
+      </c>
       <c r="G2" s="49"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+      <c r="I2" s="29">
+        <v>3</v>
+      </c>
+      <c r="J2" s="29">
+        <v>3</v>
+      </c>
+      <c r="K2" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -1716,15 +1723,26 @@
       </c>
       <c r="D3" s="78">
         <f t="shared" ref="D3:D29" si="0" xml:space="preserve"> SUM($H3:$T3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="65"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="37">
+        <f>$D3</f>
+        <v>8</v>
+      </c>
       <c r="G3" s="51"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="H3" s="29">
+        <v>1</v>
+      </c>
+      <c r="I3" s="29">
+        <v>3</v>
+      </c>
+      <c r="J3" s="29">
+        <v>3</v>
+      </c>
+      <c r="K3" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
@@ -1738,15 +1756,26 @@
       </c>
       <c r="D4" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="65"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F9" si="1">$D4</f>
+        <v>8</v>
+      </c>
       <c r="G4" s="51"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="29">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29">
+        <v>3</v>
+      </c>
+      <c r="J4" s="29">
+        <v>3</v>
+      </c>
+      <c r="K4" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -1760,15 +1789,26 @@
       </c>
       <c r="D5" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" s="65"/>
-      <c r="F5" s="37"/>
+      <c r="F5" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G5" s="51"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29">
+        <v>3</v>
+      </c>
+      <c r="J5" s="29">
+        <v>3</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
@@ -1782,15 +1822,26 @@
       </c>
       <c r="D6" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="37"/>
+      <c r="F6" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="H6" s="29">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29">
+        <v>3</v>
+      </c>
+      <c r="J6" s="29">
+        <v>3</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -1804,15 +1855,26 @@
       </c>
       <c r="D7" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="65"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G7" s="51"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>3</v>
+      </c>
+      <c r="J7" s="29">
+        <v>3</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
@@ -1826,15 +1888,26 @@
       </c>
       <c r="D8" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="65"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G8" s="51"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="I8" s="29">
+        <v>3</v>
+      </c>
+      <c r="J8" s="29">
+        <v>3</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
@@ -1848,15 +1921,26 @@
       </c>
       <c r="D9" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="65"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G9" s="51"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>3</v>
+      </c>
+      <c r="J9" s="29">
+        <v>3</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
@@ -1870,11 +1954,11 @@
       </c>
       <c r="D10" s="78">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="65">
         <f>D10</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="51"/>
@@ -1884,7 +1968,9 @@
       <c r="I10" s="29">
         <v>2</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="29">
+        <v>3</v>
+      </c>
       <c r="K10" s="29">
         <v>1</v>
       </c>
@@ -1903,16 +1989,27 @@
         <v>82</v>
       </c>
       <c r="D11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f xml:space="preserve"> SUM($H11:$T11)</f>
+        <v>8</v>
       </c>
       <c r="E11" s="66"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39">
+        <f>$D11</f>
+        <v>8</v>
+      </c>
       <c r="G11" s="53"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <v>3</v>
+      </c>
+      <c r="J11" s="30">
+        <v>3</v>
+      </c>
+      <c r="K11" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
@@ -1926,15 +2023,26 @@
       </c>
       <c r="D12" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" s="66"/>
-      <c r="F12" s="39"/>
+      <c r="F12" s="39">
+        <f t="shared" ref="F12:F15" si="2">$D12</f>
+        <v>8</v>
+      </c>
       <c r="G12" s="53"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
+        <v>3</v>
+      </c>
+      <c r="J12" s="30">
+        <v>3</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
@@ -1948,15 +2056,26 @@
       </c>
       <c r="D13" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13" s="66"/>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="G13" s="53"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="H13" s="30">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30">
+        <v>3</v>
+      </c>
+      <c r="J13" s="30">
+        <v>3</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
@@ -1970,15 +2089,26 @@
       </c>
       <c r="D14" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="66"/>
-      <c r="F14" s="39"/>
+      <c r="F14" s="39">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="G14" s="53"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="H14" s="30">
+        <v>1</v>
+      </c>
+      <c r="I14" s="30">
+        <v>3</v>
+      </c>
+      <c r="J14" s="30">
+        <v>3</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
@@ -1992,15 +2122,26 @@
       </c>
       <c r="D15" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="66"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="39">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="G15" s="53"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
+        <v>3</v>
+      </c>
+      <c r="J15" s="30">
+        <v>3</v>
+      </c>
+      <c r="K15" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
@@ -2316,18 +2457,18 @@
       </c>
       <c r="D30" s="28">
         <f>SUM(D$2:D$29)</f>
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" ref="E30:G30" si="1">SUM(E$2:E$29)</f>
-        <v>6</v>
+        <f t="shared" ref="E30:G30" si="3">SUM(E$2:E$29)</f>
+        <v>9</v>
       </c>
       <c r="F30" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/docs/storyMap.xlsx
+++ b/docs/storyMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\UF\ufCompSciOnline\spring2020\CEN3031\project\career-finder\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90DBBA-A02D-40BF-B097-8B09C642C1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B099E04-F865-4534-A928-D962EE1B2477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="careerFindStoryMap" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{52ACFC18-55D0-42BF-9412-7EE33542DA90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rcaplin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+May be covered by CF01 TC.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{583C764B-F8B7-4AB5-85E7-BF42C5CCF0FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rcaplin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+May be covered by CF10.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{88D88C29-8625-481D-B5D0-11F7C01C046A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rcaplin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+May be covered by CF10.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{920A0DFC-2D6C-4CDC-A473-ADE8FE8633A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rcaplin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+May be covered by CF10.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
@@ -319,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +470,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +521,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -641,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -891,6 +1016,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,11 +1749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADC453F-97E4-4EC8-8383-D8BA2226CD2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="51"/>
-      <c r="H3" s="29">
+      <c r="H3" s="90">
         <v>1</v>
       </c>
       <c r="I3" s="29">
@@ -2031,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="53"/>
-      <c r="H12" s="30">
+      <c r="H12" s="90">
         <v>1</v>
       </c>
       <c r="I12" s="30">
@@ -2064,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="53"/>
-      <c r="H13" s="30">
+      <c r="H13" s="90">
         <v>1</v>
       </c>
       <c r="I13" s="30">
@@ -2097,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="53"/>
-      <c r="H14" s="30">
+      <c r="H14" s="90">
         <v>1</v>
       </c>
       <c r="I14" s="30">
@@ -2476,5 +2604,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>